--- a/data/sheet_ordered.xlsx
+++ b/data/sheet_ordered.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">French, Chinese</t>
   </si>
   <si>
-    <t xml:space="preserve">Beginner, Intermediate</t>
+    <t xml:space="preserve">Intermediate, Beginner</t>
   </si>
   <si>
     <t xml:space="preserve">JA</t>
@@ -634,10 +634,10 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
